--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,64 +40,76 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>weird</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>false</t>
   </si>
   <si>
     <t>seriously</t>
@@ -106,9 +118,6 @@
     <t>bad</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -118,9 +127,6 @@
     <t>[UNK]</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -133,18 +139,18 @@
     <t>best</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -160,7 +166,7 @@
     <t>wow</t>
   </si>
   <si>
-    <t>many</t>
+    <t>worth</t>
   </si>
   <si>
     <t>social</t>
@@ -169,43 +175,43 @@
     <t>new</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>much</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
+    <t>real</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>documentary</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
     <t>watch</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>’</t>
   </si>
   <si>
     <t>dilemma</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -577,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -688,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>0.92</v>
@@ -738,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -788,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>0.9</v>
@@ -838,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9038461538461539</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.8245614035087719</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="L7">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.6933333333333334</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L8">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.6896551724137931</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.6842105263157895</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7058823529411765</v>
+        <v>0.8125</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.6111111111111112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6923076923076923</v>
+        <v>0.8125</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6571428571428571</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>0.5185185185185185</v>
@@ -1188,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.4545454545454545</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.65</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1306,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.2926829268292683</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,16 +1365,16 @@
         <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.2586520947176685</v>
+        <v>0.2577413479052824</v>
       </c>
       <c r="L17">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M17">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1380,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1388,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6014492753623188</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1406,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.2372881355932203</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1459,16 +1465,16 @@
         <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.1851851851851852</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1480,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1488,13 +1494,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1506,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.180327868852459</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L20">
         <v>11</v>
@@ -1530,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1538,13 +1544,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5652173913043478</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1556,31 +1562,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21">
+        <v>0.1846153846153846</v>
+      </c>
+      <c r="L21">
+        <v>12</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>53</v>
-      </c>
-      <c r="K21">
-        <v>0.1789473684210526</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1588,13 +1594,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5106382978723404</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1606,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.1529411764705882</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1630,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1638,13 +1644,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3928571428571428</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1656,19 +1662,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.1506849315068493</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1680,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1688,13 +1694,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3846153846153846</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1706,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.1267605633802817</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1730,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1738,13 +1744,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.375</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1756,19 +1762,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.0537037037037037</v>
+        <v>0.072992700729927</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1780,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>511</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1788,13 +1794,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3214285714285715</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1806,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.05271084337349398</v>
+        <v>0.06325301204819277</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1830,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1838,13 +1844,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1794871794871795</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1856,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.04593639575971731</v>
+        <v>0.05653710247349823</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1880,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1888,37 +1894,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04391891891891892</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>283</v>
+        <v>24</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.03409090909090909</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1930,21 +1936,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>595</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>19</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.03225806451612903</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1956,21 +1986,45 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>330</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>64</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>0.03174603174603174</v>
+        <v>0.03329065300896287</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1982,21 +2036,45 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>305</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.05743243243243244</v>
+      </c>
+      <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0.15</v>
+      </c>
+      <c r="F31">
+        <v>0.85</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>279</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K31">
-        <v>0.029449423815621</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2008,12 +2086,12 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>758</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K32">
         <v>0.02649769585253456</v>
